--- a/biology/Botanique/Berberis_wilsoniae/Berberis_wilsoniae.xlsx
+++ b/biology/Botanique/Berberis_wilsoniae/Berberis_wilsoniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris de Wilson ou épine-vinette de Wilson (Berberis wilsoniae) est une plante de la famille des Berbéridacées originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbuste ne dépassant guère un mètre de haut, aux branches arquées et aux épines trifurquées et jamais simples.
 Ses feuilles sont semi-persistantes.
@@ -546,7 +560,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris de Wilson a été dédié par William Botting Hemsley à Ernest Henry Wilson qui l'a collectée en Chine dans le Sichuan. L'épithète spécifique a été d'abord orthographié wilsonae, puis corrigé en wilsoniae (orthographe adoptée par l'index IPNI et GRIN) ; l'index Tropicos utilise la deuxième déclinaison latine au génitif - wilsonii - conformément à l'article 60.11 du code de botanique.
 Des variétés botaniques sont reconnues :
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris de Wilson est originaire de Chine : Gansu, Hubei, Hunan, Qinghai, Shaanxi, Sichuan, Xizang, Yunnan. Il est actuellement largement répandu dans tous les pays à climats tempérés.
 </t>
@@ -615,7 +633,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris de Wilson commence à se répandre en France en usage ornemental pour son développement réduit et ses fruits.
 			Fleurs
